--- a/biology/Botanique/Mimosa_odorant/Mimosa_odorant.xlsx
+++ b/biology/Botanique/Mimosa_odorant/Mimosa_odorant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vachellia karroo
 Le Mimosa odorant, parfois appelé Mimosa karoo, (Vachellia karroo) est une espèce d'arbuste de la famille des Fabacées. Cette espèce est originaire du sud de l'Afrique.
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes végétatifs
-Les feuilles sont composées. Les branches sont garnies de longues épines très acérées.
-Organes reproducteurs
-La floraison a lieu à partir du début de l'été. L'inflorescence est un racème simple de fleurs hermaphrodites, jaunes, en forme de pompon ; la pollinisation est entomogame[5].
-Le fruit est une gousse.
+          <t>Organes végétatifs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont composées. Les branches sont garnies de longues épines très acérées.
 </t>
         </is>
       </c>
@@ -544,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aire de répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est originaire du sud de l'Afrique.
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu à partir du début de l'été. L'inflorescence est un racème simple de fleurs hermaphrodites, jaunes, en forme de pompon ; la pollinisation est entomogame.
+Le fruit est une gousse.
 </t>
         </is>
       </c>
@@ -575,12 +596,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rôle écologique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre est une bonne source de fourrage en fournissant du feuillage, des fleurs et des gousses dépourvus de cyanure d'hydrogène (parfois présent chez d'autres espèces africaines d'acacia)[6]. Les fleurs, mellifères, fournissent une bonne quantité de nectar et de pollen pour les abeilles et autres butineurs. La gomme exsudée au niveau des blessures de l'écorce est comestible et d’un goût agréable ; elle est consommée par divers animaux tels que les galagos[6]. Les chenilles de plusieurs espèces de papillons dépendent de cet arbre, telles que les chenilles de Charaxes zoolina zoolina et d’Azanus jesous[6]. L'arbre attire les insectes par ses fleurs et sa gomme, et de fait attire aussi les oiseaux insectivores. Il est une source appréciable d’ombrage dans les régions arides dont il est originaire, et aussi un site de nidification pour plusieurs espèces d’oiseaux[6].
+          <t>Aire de répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du sud de l'Afrique.
 </t>
         </is>
       </c>
@@ -606,50 +629,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Rôle écologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est une bonne source de fourrage en fournissant du feuillage, des fleurs et des gousses dépourvus de cyanure d'hydrogène (parfois présent chez d'autres espèces africaines d'acacia). Les fleurs, mellifères, fournissent une bonne quantité de nectar et de pollen pour les abeilles et autres butineurs. La gomme exsudée au niveau des blessures de l'écorce est comestible et d’un goût agréable ; elle est consommée par divers animaux tels que les galagos. Les chenilles de plusieurs espèces de papillons dépendent de cet arbre, telles que les chenilles de Charaxes zoolina zoolina et d’Azanus jesous. L'arbre attire les insectes par ses fleurs et sa gomme, et de fait attire aussi les oiseaux insectivores. Il est une source appréciable d’ombrage dans les régions arides dont il est originaire, et aussi un site de nidification pour plusieurs espèces d’oiseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mimosa_odorant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mimosa_odorant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Appellations et systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Synonymes
-Acacia dekindtiana A.Chev.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Acacia dekindtiana A.Chev.
 Acacia karoo Hayne (variante d'orthographe)
 Vachellia karroo (Hayne) Galasso &amp; Banfi
 Acacia inconflagrabilis Gerstner</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mimosa_odorant</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mimosa_odorant</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est dur et lourd, mais sensible aux attaques des insectes xylophages. Il est et a été utilisé pour de multiples usages, tels que la fabrication de canots ou de clôtures[6]. Les épines sont utilisées comme épingle ou comme aiguille à coudre[6]. La gomme est comestible. Elle a été un temps commercialisée sous le nom de « gomme du Cap » et utilisée dans la fabrication de confiserie[6]. L'écorce contient des tannins utilisables pour tanner le cuir et lui donner une couleur brun-rouge, mais cela lui confère aussi une mauvaise odeur[6]. Le phelloderme, souple, peut être utilisé, une fois trempé dans l'eau, pour tresser des cordes[6].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -671,10 +701,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est dur et lourd, mais sensible aux attaques des insectes xylophages. Il est et a été utilisé pour de multiples usages, tels que la fabrication de canots ou de clôtures. Les épines sont utilisées comme épingle ou comme aiguille à coudre. La gomme est comestible. Elle a été un temps commercialisée sous le nom de « gomme du Cap » et utilisée dans la fabrication de confiserie. L'écorce contient des tannins utilisables pour tanner le cuir et lui donner une couleur brun-rouge, mais cela lui confère aussi une mauvaise odeur. Le phelloderme, souple, peut être utilisé, une fois trempé dans l'eau, pour tresser des cordes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mimosa_odorant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mimosa_odorant</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
